--- a/Melt_Inclusion_data/MeltInclusionCompilation_Sept22.xlsx
+++ b/Melt_Inclusion_data/MeltInclusionCompilation_Sept22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Postdoc\PyMME\MyBarometers\Cascades_Data\Supporting_Information_Sept2022\Melt_Inclusion_Diagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Postdoc\PyMME\MyBarometers\Cascades_Data\Supporting_Information_Sept2022\Melt_Inclusion_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C847010-2DE0-4FE1-BC0E-95FE59E36C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04CA122-AE48-4167-AC26-D2C61BAD2E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Melt_Inclusion_Investigation_Ja" sheetId="1" r:id="rId1"/>
@@ -98197,7 +98197,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
